--- a/Data/Transitions/19041913Translation.xlsx
+++ b/Data/Transitions/19041913Translation.xlsx
@@ -136,7 +136,7 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
+    <t>{311.0: 0.023413950227830355}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -160,7 +160,7 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
@@ -268,7 +268,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9168485213334336}</t>
+    <t>{147.0: 0.9109445519019987}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -334,10 +334,10 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 1.0, 180.0: 0.03254877942077172, 850.0: 0.0065536559720050964}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9674512205792283, 850.0: 0.19479509161951705}</t>
+    <t>{179.0: 1.0, 180.0: 0.02915132042943343, 850.0: 0.009625001531993029}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9708486795705665, 850.0: 0.32054877413941296}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -346,7 +346,7 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 1.0, 171.0: 0.0022357471121599803, 593.0: 0.047477041276882896}</t>
+    <t>{184.0: 1.0, 171.0: 0.0022357471121599803, 593.0: 0.04736108044332734}</t>
   </si>
   <si>
     <t>{185.0: 0.9243525670149931}</t>
@@ -454,6 +454,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -511,7 +514,7 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8162546562817474}</t>
+    <t>{264.0: 0.8178827951936631}</t>
   </si>
   <si>
     <t>{265.0: 0.6807426881367072}</t>
@@ -538,7 +541,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434104, 850.0: 0.3516377649325626}</t>
+    <t>{277.0: 0.9637501241434104, 850.0: 0.5766192733017378}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -628,7 +631,7 @@
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.9765860497721697, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -652,9 +655,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -784,7 +784,7 @@
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 595.0: 0.09431007482164608}</t>
+    <t>{476.0: 1.0, 595.0: 0.09373919059149083}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -856,7 +856,7 @@
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.23553719008264462}</t>
+    <t>{534.0: 0.22213106348066866}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -886,7 +886,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.4934337569518343}</t>
+    <t>{534.0: 0.5209020292831862}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -898,7 +898,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0}</t>
@@ -988,10 +988,10 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.7044783923693807}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9056899251783539}</t>
+    <t>{593.0: 0.7047938629038607}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9062608094085092}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1126,7 +1126,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 534.0: 0.04730317529360591}</t>
+    <t>{687.0: 1.0, 534.0: 0.04461080914777971}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1192,7 +1192,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 1.0, 147.0: 0.08315147866656633}</t>
+    <t>{733.0: 1.0, 147.0: 0.08905544809800128}</t>
   </si>
   <si>
     <t>{735.0: 0.6435926773455377}</t>
@@ -1375,7 +1375,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.18374534371825263}</t>
+    <t>{264.0: 0.18211720480633684}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.44701348747591524, 277.0: 0.03624987585658953}</t>
+    <t>{850.0: 0.09320695102685624, 277.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1498,7 +1498,7 @@
     <t>{915.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.22372587767191515}</t>
+    <t>{534.0: 0.21235609808836542}</t>
   </si>
   <si>
     <t>{917.0: 0.84180271253553}</t>
@@ -1531,7 +1531,7 @@
     <t>{929.0: 1.0}</t>
   </si>
   <si>
-    <t>{930.0: 0.93016028215246}</t>
+    <t>{930.0: 0.9201405526273758}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1552,7 +1552,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24804456635373645}</t>
+    <t>{593.0: 0.24784505665281187}</t>
   </si>
   <si>
     <t>{785.0: 0.2579514149762084}</t>
@@ -1606,7 +1606,7 @@
     <t>{410.0: 0.2834354798085803, 729.0: 0.1333273316528628}</t>
   </si>
   <si>
-    <t>{34.0: 0.41697971450037563, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 0.41697971450037563, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{999.0: 1.0}</t>
@@ -1645,10 +1645,10 @@
     <t>{179.0: 0.9123261843035588, 180.0: 0.08585849694465239, 850.0: 0.0018153187517888061}</t>
   </si>
   <si>
-    <t>{180.0: 0.9792946304735487, 850.0: 0.020705369526451356}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.7826871112860114, 171.0: 0.006217285085237512, 593.0: 0.21109560362875088}</t>
+    <t>{180.0: 0.9792946304735486, 850.0: 0.020705369526451356}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.7825354119438502, 171.0: 0.006221571296373365, 593.0: 0.21124301675977655}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -1666,13 +1666,13 @@
     <t>{264.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 850.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434102, 850.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{289.0: 0.7035714285714286, 730.0: 0.29642857142857143}</t>
   </si>
   <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823581, 917.0: 0.018264222417641886}</t>
@@ -1687,19 +1687,19 @@
     <t>{431.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.8458036984352774, 595.0: 0.15419630156472264}</t>
+    <t>{476.0: 0.8459132906894103, 595.0: 0.15408670931058993}</t>
   </si>
   <si>
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885222, 404.0: 0.16654163540885222, 930.0: 0.5001250312578145}</t>
+    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885225, 404.0: 0.16654163540885225, 930.0: 0.5001250312578145}</t>
   </si>
   <si>
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587968, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267294, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -1711,13 +1711,13 @@
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
   </si>
   <si>
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.7078576225654801, 534.0: 0.2921423774345198}</t>
+    <t>{687.0: 0.7092245989304813, 534.0: 0.2907754010695187}</t>
   </si>
   <si>
     <t>{702.0: 1.0}</t>
@@ -1735,7 +1735,7 @@
     <t>{735.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787179, 917.0: 0.07999122892128212}</t>
+    <t>{754.0: 0.8492529563266302, 917.0: 0.15074704367336975}</t>
   </si>
   <si>
     <t>{785.0: 1.0}</t>
@@ -1744,7 +1744,7 @@
     <t>{838.0: 0.9103516592372461, 19.0: 0.08964834076275384}</t>
   </si>
   <si>
-    <t>{850.0: 0.5597104945717732, 277.0: 0.44028950542822676}</t>
+    <t>{850.0: 0.1391509433962264, 277.0: 0.8608490566037735}</t>
   </si>
   <si>
     <t>{854.0: 0.8732737611697806, 976.0: 0.12672623883021933}</t>
@@ -1759,7 +1759,7 @@
     <t>{930.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38879551820728286, 702.0: 0.6112044817927171}</t>
+    <t>{249.0: 0.38879551820728303, 702.0: 0.6112044817927171}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1768,7 +1768,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.40451855836471223}</t>
+    <t>{981.0: 0.711987744159326, 431.0: 0.2880122558406741}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372657, 729.0: 0.3049207329627342}</t>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3779,29 +3779,29 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>546</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>152</v>
+        <v>546</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3834,40 +3834,40 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>547</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>548</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3933,40 +3933,40 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>549</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>167</v>
+        <v>548</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4032,29 +4032,29 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>550</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>550</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4142,29 +4142,29 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>551</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>185</v>
+        <v>551</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4351,40 +4351,40 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>552</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>205</v>
+        <v>553</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
